--- a/ejercicio_KM.xlsx
+++ b/ejercicio_KM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrod349\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CFE249C-9A45-45CD-82DC-7CA9BD53413C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DB689A-DBDA-401C-9E99-6DBB1C796FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{125C7515-31F1-47D3-B5AD-AB143D040597}"/>
   </bookViews>
@@ -396,253 +396,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71502CC-258A-4007-A825-34F3BCB25542}">
-  <dimension ref="B2:D23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>2</v>
-      </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16">
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17">
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18">
-        <v>16</v>
-      </c>
-      <c r="C18">
+      <c r="B20">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>25</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>32</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>34</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>34</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>35</v>
-      </c>
-      <c r="D23">
         <v>0</v>
       </c>
     </row>
